--- a/docs/data/snap.xlsx
+++ b/docs/data/snap.xlsx
@@ -391,11 +391,11 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.596141051230872</v>
+        <v>1.135083983912941</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.9620758483033932</v>
+        <v>0.6841731724627396</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2.370259481037924</v>
+        <v>1.685592618878637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,11 +451,11 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.935462408516301</v>
+        <v>1.376389874615566</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2.370259481037924</v>
+        <v>1.685592618878637</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>2.87624750499002</v>
+        <v>2.045422285308729</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>1.864271457085828</v>
+        <v>1.325762952448545</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2.87624750499002</v>
+        <v>2.045422285308729</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.4996673320026613</v>
+        <v>0.3553347527797492</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.587624750499002</v>
+        <v>0.4178850248403123</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.9461077844311377</v>
+        <v>0.6728176011355571</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -611,11 +611,11 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.351297405189621</v>
+        <v>0.9609652235628106</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -631,11 +631,11 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.636726546906188</v>
+        <v>1.163946061036196</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -651,11 +651,11 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.636726546906188</v>
+        <v>1.163946061036196</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -671,11 +671,11 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.029940119760479</v>
+        <v>0.7324343506032647</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.300399201596806</v>
+        <v>0.9247693399574166</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -711,11 +711,11 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.080838323353293</v>
+        <v>0.7686302342086586</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="C19">
-        <v>1.242182302062542</v>
+        <v>0.8833688194937308</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -751,11 +751,11 @@
         </is>
       </c>
       <c r="C20">
-        <v>1.242182302062542</v>
+        <v>0.8833688194937308</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -771,11 +771,11 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.666666666666667</v>
+        <v>1.185237757274663</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.7894211576846307</v>
+        <v>0.5613910574875799</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.7894211576846307</v>
+        <v>0.5613910574875799</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -831,11 +831,11 @@
         </is>
       </c>
       <c r="C24">
-        <v>1.662674650698603</v>
+        <v>1.182398864442867</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -851,11 +851,11 @@
         </is>
       </c>
       <c r="C25">
-        <v>2.265469061876248</v>
+        <v>1.611071682044003</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>2.466067864271457</v>
+        <v>1.753726046841732</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2.466067864271457</v>
+        <v>1.753726046841732</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -911,11 +911,11 @@
         </is>
       </c>
       <c r="C28">
-        <v>2.072854291417165</v>
+        <v>1.474095102909865</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="C29">
-        <v>1.154690618762475</v>
+        <v>0.8211497515968772</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.756487025948104</v>
+        <v>1.249112845990064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.285429141716567</v>
+        <v>0.9141234918381831</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -991,11 +991,11 @@
         </is>
       </c>
       <c r="C32">
-        <v>1.662674650698603</v>
+        <v>1.182398864442867</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1011,11 @@
         </is>
       </c>
       <c r="C33">
-        <v>1.462075848303393</v>
+        <v>1.039744499645138</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1031,11 +1031,11 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.395209580838323</v>
+        <v>0.9921930447125621</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1051,11 +1051,11 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.028609447771125</v>
+        <v>0.7314880529926663</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="C36">
-        <v>1.445775116433799</v>
+        <v>1.028152353915306</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1091,11 +1091,11 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.269461077844311</v>
+        <v>0.9027679205110007</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="C38">
-        <v>1.269461077844311</v>
+        <v>0.9027679205110007</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1131,11 +1131,11 @@
         </is>
       </c>
       <c r="C39">
-        <v>2.055888223552894</v>
+        <v>1.462029808374734</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="C40">
-        <v>1.445775116433799</v>
+        <v>1.028152353915306</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1171,11 +1171,11 @@
         </is>
       </c>
       <c r="C41">
-        <v>1.269461077844311</v>
+        <v>0.9027679205110007</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1191,11 +1191,11 @@
         </is>
       </c>
       <c r="C42">
-        <v>1.353293413173653</v>
+        <v>0.9623846699787083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="C43">
-        <v>1.662674650698603</v>
+        <v>1.182398864442867</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1231,11 +1231,11 @@
         </is>
       </c>
       <c r="C44">
-        <v>1.578176979374584</v>
+        <v>1.12230896616986</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1251,11 +1251,11 @@
         </is>
       </c>
       <c r="C45">
-        <v>1.596141051230872</v>
+        <v>1.135083983912941</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.9700598802395211</v>
+        <v>0.6898509581263307</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1291,11 +1291,11 @@
         </is>
       </c>
       <c r="C47">
-        <v>1.462075848303393</v>
+        <v>1.039744499645138</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1311,11 +1311,11 @@
         </is>
       </c>
       <c r="C48">
-        <v>1.251996007984032</v>
+        <v>0.890347764371895</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1331,11 +1331,11 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.108782435129741</v>
+        <v>0.7885024840312278</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1351,11 +1351,11 @@
         </is>
       </c>
       <c r="C50">
-        <v>1.028609447771125</v>
+        <v>0.7314880529926663</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1371,11 +1371,11 @@
         </is>
       </c>
       <c r="C51">
-        <v>1.596141051230872</v>
+        <v>1.135083983912941</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1391,11 +1391,11 @@
         </is>
       </c>
       <c r="C52">
-        <v>1.462075848303393</v>
+        <v>1.039744499645138</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1411,11 +1411,11 @@
         </is>
       </c>
       <c r="C53">
-        <v>1.533932135728543</v>
+        <v>1.090844570617459</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.5708582834331337</v>
+        <v>0.4059616749467708</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="C55">
-        <v>1.385728542914172</v>
+        <v>0.9854506742370476</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1471,11 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.737192282102462</v>
+        <v>1.235391530636385</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.8063872255489022</v>
+        <v>0.5734563520227112</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.8376580172987359</v>
+        <v>0.5956943458717767</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1531,11 +1531,11 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.359281437125748</v>
+        <v>0.9666430092264017</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1551,11 +1551,11 @@
         </is>
       </c>
       <c r="C60">
-        <v>1.196606786427146</v>
+        <v>0.850958126330731</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>1.864271457085828</v>
+        <v>1.325762952448545</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1591,11 +1591,11 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.055888223552894</v>
+        <v>1.462029808374734</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.353293413173653</v>
+        <v>0.9623846699787083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.8376580172987359</v>
+        <v>0.5956943458717767</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1651,11 +1651,11 @@
         </is>
       </c>
       <c r="C65">
-        <v>1.462075848303393</v>
+        <v>1.039744499645138</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1671,11 +1671,11 @@
         </is>
       </c>
       <c r="C66">
-        <v>1.129740518962076</v>
+        <v>0.8034066713981547</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="C67">
-        <v>1.52228875582169</v>
+        <v>1.082564466524722</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>2.265469061876248</v>
+        <v>1.611071682044003</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.4530938123752495</v>
+        <v>0.3222143364088006</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.8682634730538922</v>
+        <v>0.6174591909155429</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>2.265469061876248</v>
+        <v>1.611071682044003</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="C72">
-        <v>1.351297405189621</v>
+        <v>0.9609652235628106</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.6936127744510978</v>
+        <v>0.4932576295244854</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>1.860778443113772</v>
+        <v>1.323278921220724</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>2.370259481037924</v>
+        <v>1.685592618878637</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>2.265469061876248</v>
+        <v>1.611071682044003</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1891,11 +1891,11 @@
         </is>
       </c>
       <c r="C77">
-        <v>1.406187624750499</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1911,11 +1911,11 @@
         </is>
       </c>
       <c r="C78">
-        <v>2.067198935462408</v>
+        <v>1.470073338064821</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="C79">
-        <v>1.36626746506986</v>
+        <v>0.971611071682044</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.6691616766467066</v>
+        <v>0.4758694109297374</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
